--- a/medicine/Premiers secours et secourisme/Véhicule_de_secours_routier/Véhicule_de_secours_routier.xlsx
+++ b/medicine/Premiers secours et secourisme/Véhicule_de_secours_routier/Véhicule_de_secours_routier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9hicule_de_secours_routier</t>
+          <t>Véhicule_de_secours_routier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-En France, le véhicule de secours routier (VSR)[1], ou fourgon de secours routier (FSR), est un fourgon spécialisé dans les accidents de la route.
+En France, le véhicule de secours routier (VSR), ou fourgon de secours routier (FSR), est un fourgon spécialisé dans les accidents de la route.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9hicule_de_secours_routier</t>
+          <t>Véhicule_de_secours_routier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le VSR transporte trois sapeurs-pompiers, le FSR six, ainsi que tout le matériel dont ils peuvent avoir besoin[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le VSR transporte trois sapeurs-pompiers, le FSR six, ainsi que tout le matériel dont ils peuvent avoir besoin :
 balisage et éclairage : gyromât, cônes de Lübeck, panneaux lumineux, projecteurs ;
 protection incendie : lancette, extincteurs ;
 calage et levage des véhicules : coussins d'air, cales, vérins hydraulique, bastins, crics, etc. ;
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V%C3%A9hicule_de_secours_routier</t>
+          <t>Véhicule_de_secours_routier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,10 +566,12 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans certains cas, le matériel est simplement conditionné dans une remorque de secours routier (RSR) tractée par un véhicule léger (VTU par exemple).
-Il existe des fourgons mixtes incendie/secours routier, appelés fourgons pompe-tonne/secours routier (FPTSR)[3], ainsi que des FPTSR RR capables d'intervenir en milieu ferroviaire et disposant de bogies qui leur permettent de circuler sur une voie ferrée (fourgons pompe-tonne/secours routier/rail-route).
+Il existe des fourgons mixtes incendie/secours routier, appelés fourgons pompe-tonne/secours routier (FPTSR), ainsi que des FPTSR RR capables d'intervenir en milieu ferroviaire et disposant de bogies qui leur permettent de circuler sur une voie ferrée (fourgons pompe-tonne/secours routier/rail-route).
 Dans les zones montagneuses, les véhicules de secours routier peuvent être équipés pour le secours en ravin (VSR-Ravin). Il s'agit en particulier de l'adjonction d'un bras pivotant permettant de faire pendre un câble de remorquage mû par un treuil, ceci permettant de hisser un brancard.
 </t>
         </is>
